--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
@@ -1289,30 +1289,84 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>44489.73675903975</v>
-      </c>
-      <c r="C30" t="inlineStr">
+        <v>44489.73675903936</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>50</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="5" t="n">
         <v>3.01</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-21</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44490.45557141204</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021-10-21</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44490.46612804689</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11511</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>51</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="1048559" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
@@ -1343,30 +1343,84 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>2021-10-21</t>
         </is>
       </c>
       <c r="B32" s="10" t="n">
-        <v>44490.46612804689</v>
-      </c>
-      <c r="C32" t="inlineStr">
+        <v>44490.46612804398</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>11511</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>50</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="5" t="n">
         <v>-1</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="5" t="n">
         <v>2.24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44495.67209120371</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>152cycleone</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44497.41234502867</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>152fnl</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>51</v>
+      </c>
+      <c r="E34" t="n">
+        <v>51</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.87</v>
       </c>
     </row>
     <row r="1048559" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -1397,29 +1397,29 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B34" s="10" t="n">
-        <v>44497.41234502867</v>
-      </c>
-      <c r="C34" t="inlineStr">
+        <v>44497.41234502315</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>152fnl</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="5" t="n">
         <v>2.87</v>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -2113,6 +2113,60 @@
       </c>
       <c r="G11" s="5" t="n">
         <v>8.390000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-03</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44503.48433738426</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>152ccan</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-11-03</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44503.48806614619</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>152ccaan</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>51</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
@@ -1421,6 +1421,222 @@
       </c>
       <c r="G34" s="5" t="n">
         <v>2.87</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44517.64220170139</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>153rgsn</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44518.45586853009</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>153fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>44536.48649035879</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>154can</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>44553.39631619213</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>cand155</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>44581.42914795139</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>microcandi156</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>44589.61235598379</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>44599.81038652778</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>secondcycle157</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>44600.40867258553</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>157fnlcandi</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>51</v>
+      </c>
+      <c r="E42" t="n">
+        <v>45</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="1048559" ht="12.8" customHeight="1" s="6"/>
@@ -1791,7 +2007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -2143,30 +2359,84 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2021-11-03</t>
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>44503.48806614619</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>44503.48806614583</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>152ccaan</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>2.26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44523.46870836805</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>153livecan</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44553.80900871528</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>155can</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
@@ -1613,30 +1613,138 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
       <c r="B42" s="10" t="n">
-        <v>44600.40867258553</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>44600.40867258102</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>157fnlcandi</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>51</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E42" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="5" t="n">
         <v>3.32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>44622.70570033565</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>158candid</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>44623.45857030093</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>158fnlrgsncn</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>44648.44274855324</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>159fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>44663.42902833785</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>160fnltest</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>51</v>
+      </c>
+      <c r="E46" t="n">
+        <v>51</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="1048559" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
@@ -1721,30 +1721,111 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B46" s="10" t="n">
-        <v>44663.42902833785</v>
-      </c>
-      <c r="C46" t="inlineStr">
+        <v>44663.42902833333</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>160fnltest</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>51</v>
-      </c>
-      <c r="E46" t="n">
-        <v>51</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="D46" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="5" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>44740.35450634259</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>163candid</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>44755.44615791667</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>164candid</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>44756.51669370368</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>51</v>
+      </c>
+      <c r="E49" t="n">
+        <v>51</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="1048559" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
@@ -1802,30 +1802,57 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B49" s="10" t="n">
-        <v>44756.51669370368</v>
-      </c>
-      <c r="C49" t="inlineStr">
+        <v>44756.51669370371</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>164finalrun</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>51</v>
-      </c>
-      <c r="E49" t="n">
-        <v>51</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="D49" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="5" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>44757.63793371798</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>testcerti164</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>51</v>
+      </c>
+      <c r="E50" t="n">
+        <v>51</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="1048559" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
@@ -1829,30 +1829,219 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
       <c r="B50" s="10" t="n">
-        <v>44757.63793371798</v>
-      </c>
-      <c r="C50" t="inlineStr">
+        <v>44757.63793371528</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>testcerti164</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>51</v>
-      </c>
-      <c r="E50" t="n">
-        <v>51</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="D50" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="5" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>44776.69886240741</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>165_scndcycle</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>44777.40108302084</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>165finalrun</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>44795.68176572917</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>44796.9161703125</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>44803.90564909722</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>cert234</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>44803.90679255787</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>cert345</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>44803.91025019104</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>cert456</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>51</v>
+      </c>
+      <c r="E57" t="n">
+        <v>51</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="1048559" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +88,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -115,8 +114,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,13 +478,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -495,7 +495,7 @@
     <col width="11.06" customWidth="1" style="5" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="6">
+    <row r="1" ht="13.5" customHeight="1" s="6">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
@@ -532,7 +532,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
+    <row r="2" ht="13.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -559,7 +559,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
+    <row r="3" ht="13.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -586,7 +586,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
+    <row r="4" ht="13.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -613,7 +613,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
+    <row r="5" ht="13.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -640,7 +640,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
+    <row r="6" ht="13.5" customHeight="1" s="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -667,7 +667,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
+    <row r="7" ht="13.5" customHeight="1" s="6">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -694,7 +694,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
+    <row r="8" ht="13.5" customHeight="1" s="6">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -721,7 +721,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
+    <row r="9" ht="13.5" customHeight="1" s="6">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -748,7 +748,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
+    <row r="10" ht="13.5" customHeight="1" s="6">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -775,7 +775,7 @@
         <v>4.19</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
+    <row r="11" ht="13.5" customHeight="1" s="6">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -802,7 +802,7 @@
         <v>8.390000000000001</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="6">
+    <row r="12" ht="13.5" customHeight="1" s="6">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -829,7 +829,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
+    <row r="13" ht="13.5" customHeight="1" s="6">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -856,7 +856,7 @@
         <v>4.36</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
+    <row r="14" ht="13.5" customHeight="1" s="6">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -883,7 +883,7 @@
         <v>28.96</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
+    <row r="15" ht="13.5" customHeight="1" s="6">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -910,7 +910,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="6">
+    <row r="16" ht="13.5" customHeight="1" s="6">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -937,7 +937,7 @@
         <v>4.02</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="6">
+    <row r="17" ht="13.5" customHeight="1" s="6">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -964,7 +964,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="6">
+    <row r="18" ht="13.5" customHeight="1" s="6">
       <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -991,7 +991,7 @@
         <v>1.09</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="6">
+    <row r="19" ht="13.5" customHeight="1" s="6">
       <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -1018,7 +1018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="6">
+    <row r="20" ht="13.5" customHeight="1" s="6">
       <c r="A20" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -1045,13 +1045,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="13.5" customHeight="1" s="6">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="8" t="n">
         <v>44489.64130092593</v>
       </c>
       <c r="C21" s="5" t="inlineStr">
@@ -1072,13 +1072,13 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="13.5" customHeight="1" s="6">
       <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="8" t="n">
         <v>44489.65395350695</v>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -1099,13 +1099,13 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="13.5" customHeight="1" s="6">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="8" t="n">
         <v>44489.66070259259</v>
       </c>
       <c r="C23" s="5" t="inlineStr">
@@ -1126,13 +1126,13 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="13.5" customHeight="1" s="6">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="8" t="n">
         <v>44489.66728952546</v>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -1153,13 +1153,13 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="13.5" customHeight="1" s="6">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="8" t="n">
         <v>44489.69360231482</v>
       </c>
       <c r="C25" s="5" t="inlineStr">
@@ -1180,13 +1180,13 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="13.5" customHeight="1" s="6">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="8" t="n">
         <v>44489.69901369213</v>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -1207,13 +1207,13 @@
         <v>1.13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="13.5" customHeight="1" s="6">
       <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="8" t="n">
         <v>44489.7008543287</v>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -1234,13 +1234,13 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="13.5" customHeight="1" s="6">
       <c r="A28" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B28" s="10" t="n">
+      <c r="B28" s="8" t="n">
         <v>44489.71908973379</v>
       </c>
       <c r="C28" s="5" t="inlineStr">
@@ -1261,13 +1261,13 @@
         <v>2.49</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="13.5" customHeight="1" s="6">
       <c r="A29" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B29" s="10" t="n">
+      <c r="B29" s="8" t="n">
         <v>44489.73496818287</v>
       </c>
       <c r="C29" s="5" t="inlineStr">
@@ -1288,13 +1288,13 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="13.5" customHeight="1" s="6">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="8" t="n">
         <v>44489.73675903936</v>
       </c>
       <c r="C30" s="5" t="inlineStr">
@@ -1315,13 +1315,13 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="13.5" customHeight="1" s="6">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>2021-10-21</t>
         </is>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="8" t="n">
         <v>44490.45557141204</v>
       </c>
       <c r="C31" s="5" t="inlineStr">
@@ -1342,13 +1342,13 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="13.5" customHeight="1" s="6">
       <c r="A32" s="5" t="inlineStr">
         <is>
           <t>2021-10-21</t>
         </is>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="8" t="n">
         <v>44490.46612804398</v>
       </c>
       <c r="C32" s="5" t="inlineStr">
@@ -1369,13 +1369,13 @@
         <v>2.24</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="13.5" customHeight="1" s="6">
       <c r="A33" s="5" t="inlineStr">
         <is>
           <t>2021-10-26</t>
         </is>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="8" t="n">
         <v>44495.67209120371</v>
       </c>
       <c r="C33" s="5" t="inlineStr">
@@ -1396,13 +1396,13 @@
         <v>2.3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="13.5" customHeight="1" s="6">
       <c r="A34" s="5" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="B34" s="10" t="n">
+      <c r="B34" s="8" t="n">
         <v>44497.41234502315</v>
       </c>
       <c r="C34" s="5" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="13.5" customHeight="1" s="6">
       <c r="A35" s="5" t="inlineStr">
         <is>
           <t>2021-11-17</t>
         </is>
       </c>
-      <c r="B35" s="10" t="n">
+      <c r="B35" s="8" t="n">
         <v>44517.64220170139</v>
       </c>
       <c r="C35" s="5" t="inlineStr">
@@ -1450,13 +1450,13 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="13.5" customHeight="1" s="6">
       <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2021-11-18</t>
         </is>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="8" t="n">
         <v>44518.45586853009</v>
       </c>
       <c r="C36" s="5" t="inlineStr">
@@ -1477,13 +1477,13 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="13.5" customHeight="1" s="6">
       <c r="A37" s="5" t="inlineStr">
         <is>
           <t>2021-12-06</t>
         </is>
       </c>
-      <c r="B37" s="10" t="n">
+      <c r="B37" s="8" t="n">
         <v>44536.48649035879</v>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -1504,13 +1504,13 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="13.5" customHeight="1" s="6">
       <c r="A38" s="5" t="inlineStr">
         <is>
           <t>2021-12-23</t>
         </is>
       </c>
-      <c r="B38" s="10" t="n">
+      <c r="B38" s="8" t="n">
         <v>44553.39631619213</v>
       </c>
       <c r="C38" s="5" t="inlineStr">
@@ -1531,13 +1531,13 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="13.5" customHeight="1" s="6">
       <c r="A39" s="5" t="inlineStr">
         <is>
           <t>2022-01-20</t>
         </is>
       </c>
-      <c r="B39" s="10" t="n">
+      <c r="B39" s="8" t="n">
         <v>44581.42914795139</v>
       </c>
       <c r="C39" s="5" t="inlineStr">
@@ -1558,13 +1558,13 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="13.5" customHeight="1" s="6">
       <c r="A40" s="5" t="inlineStr">
         <is>
           <t>2022-01-28</t>
         </is>
       </c>
-      <c r="B40" s="10" t="n">
+      <c r="B40" s="8" t="n">
         <v>44589.61235598379</v>
       </c>
       <c r="C40" s="5" t="inlineStr">
@@ -1585,13 +1585,13 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="13.5" customHeight="1" s="6">
       <c r="A41" s="5" t="inlineStr">
         <is>
           <t>2022-02-07</t>
         </is>
       </c>
-      <c r="B41" s="10" t="n">
+      <c r="B41" s="8" t="n">
         <v>44599.81038652778</v>
       </c>
       <c r="C41" s="5" t="inlineStr">
@@ -1612,13 +1612,13 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="13.5" customHeight="1" s="6">
       <c r="A42" s="5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
-      <c r="B42" s="10" t="n">
+      <c r="B42" s="8" t="n">
         <v>44600.40867258102</v>
       </c>
       <c r="C42" s="5" t="inlineStr">
@@ -1639,13 +1639,13 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="13.5" customHeight="1" s="6">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="B43" s="10" t="n">
+      <c r="B43" s="8" t="n">
         <v>44622.70570033565</v>
       </c>
       <c r="C43" s="5" t="inlineStr">
@@ -1666,13 +1666,13 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="13.5" customHeight="1" s="6">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>2022-03-03</t>
         </is>
       </c>
-      <c r="B44" s="10" t="n">
+      <c r="B44" s="8" t="n">
         <v>44623.45857030093</v>
       </c>
       <c r="C44" s="5" t="inlineStr">
@@ -1693,13 +1693,13 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="13.5" customHeight="1" s="6">
       <c r="A45" s="5" t="inlineStr">
         <is>
           <t>2022-03-28</t>
         </is>
       </c>
-      <c r="B45" s="10" t="n">
+      <c r="B45" s="8" t="n">
         <v>44648.44274855324</v>
       </c>
       <c r="C45" s="5" t="inlineStr">
@@ -1720,13 +1720,13 @@
         <v>2.55</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="13.5" customHeight="1" s="6">
       <c r="A46" s="5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="B46" s="10" t="n">
+      <c r="B46" s="8" t="n">
         <v>44663.42902833333</v>
       </c>
       <c r="C46" s="5" t="inlineStr">
@@ -1747,13 +1747,13 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="13.5" customHeight="1" s="6">
       <c r="A47" s="5" t="inlineStr">
         <is>
           <t>2022-06-28</t>
         </is>
       </c>
-      <c r="B47" s="10" t="n">
+      <c r="B47" s="8" t="n">
         <v>44740.35450634259</v>
       </c>
       <c r="C47" s="5" t="inlineStr">
@@ -1774,13 +1774,13 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="13.5" customHeight="1" s="6">
       <c r="A48" s="5" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="B48" s="10" t="n">
+      <c r="B48" s="8" t="n">
         <v>44755.44615791667</v>
       </c>
       <c r="C48" s="5" t="inlineStr">
@@ -1801,13 +1801,13 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="13.5" customHeight="1" s="6">
       <c r="A49" s="5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
-      <c r="B49" s="10" t="n">
+      <c r="B49" s="8" t="n">
         <v>44756.51669370371</v>
       </c>
       <c r="C49" s="5" t="inlineStr">
@@ -1828,13 +1828,13 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="13.5" customHeight="1" s="6">
       <c r="A50" s="5" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="B50" s="10" t="n">
+      <c r="B50" s="8" t="n">
         <v>44757.63793371528</v>
       </c>
       <c r="C50" s="5" t="inlineStr">
@@ -1855,13 +1855,13 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="13.5" customHeight="1" s="6">
       <c r="A51" s="5" t="inlineStr">
         <is>
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="B51" s="10" t="n">
+      <c r="B51" s="8" t="n">
         <v>44776.69886240741</v>
       </c>
       <c r="C51" s="5" t="inlineStr">
@@ -1882,13 +1882,13 @@
         <v>1.16</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="13.5" customHeight="1" s="6">
       <c r="A52" s="5" t="inlineStr">
         <is>
           <t>2022-08-04</t>
         </is>
       </c>
-      <c r="B52" s="10" t="n">
+      <c r="B52" s="8" t="n">
         <v>44777.40108302084</v>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -1909,13 +1909,13 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="13.5" customHeight="1" s="6">
       <c r="A53" s="5" t="inlineStr">
         <is>
           <t>2022-08-22</t>
         </is>
       </c>
-      <c r="B53" s="10" t="n">
+      <c r="B53" s="8" t="n">
         <v>44795.68176572917</v>
       </c>
       <c r="C53" s="5" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="13.5" customHeight="1" s="6">
       <c r="A54" s="5" t="inlineStr">
         <is>
           <t>2022-08-23</t>
         </is>
       </c>
-      <c r="B54" s="10" t="n">
+      <c r="B54" s="8" t="n">
         <v>44796.9161703125</v>
       </c>
       <c r="C54" s="5" t="inlineStr">
@@ -1963,13 +1963,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="13.5" customHeight="1" s="6">
       <c r="A55" s="5" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="B55" s="10" t="n">
+      <c r="B55" s="8" t="n">
         <v>44803.90564909722</v>
       </c>
       <c r="C55" s="5" t="inlineStr">
@@ -1990,13 +1990,13 @@
         <v>1.15</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="13.5" customHeight="1" s="6">
       <c r="A56" s="5" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="B56" s="10" t="n">
+      <c r="B56" s="8" t="n">
         <v>44803.90679255787</v>
       </c>
       <c r="C56" s="5" t="inlineStr">
@@ -2017,55 +2017,85 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="57" ht="13.5" customHeight="1" s="6">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="B57" s="10" t="n">
-        <v>44803.91025019104</v>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B57" s="8" t="n">
+        <v>44803.91025019676</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>cert456</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>51</v>
-      </c>
-      <c r="E57" t="n">
-        <v>51</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="D57" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F57" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="5" t="n">
         <v>0.99</v>
       </c>
     </row>
-    <row r="1048559" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048560" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048561" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048562" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048563" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048564" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048565" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048566" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048567" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048568" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048569" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048570" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048571" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048572" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048573" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048574" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
+    <row r="58" ht="13.5" customHeight="1" s="6">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n">
+        <v>44806.69965473429</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>s166</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>51</v>
+      </c>
+      <c r="E58" t="n">
+        <v>51</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1" s="6">
+      <c r="B59" s="8" t="n"/>
+    </row>
+    <row r="1048559" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048560" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048561" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048562" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048563" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048564" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048565" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048566" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -2081,7 +2111,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2129,7 +2159,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
+    <row r="2" ht="13.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2156,7 +2186,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
+    <row r="3" ht="13.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2183,7 +2213,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
+    <row r="4" ht="13.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2291,7 +2321,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
+    <row r="8" ht="13.5" customHeight="1" s="6">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2318,7 +2348,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
+    <row r="9" ht="13.5" customHeight="1" s="6">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2345,7 +2375,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
+    <row r="10" ht="13.5" customHeight="1" s="6">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2372,7 +2402,7 @@
         <v>4.19</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
+    <row r="11" ht="13.5" customHeight="1" s="6">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2401,8 +2431,8 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -2418,7 +2448,7 @@
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2466,7 +2496,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
+    <row r="2" ht="13.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2493,7 +2523,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
+    <row r="3" ht="13.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2520,7 +2550,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
+    <row r="4" ht="13.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2628,7 +2658,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
+    <row r="8" ht="13.5" customHeight="1" s="6">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2655,7 +2685,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
+    <row r="9" ht="13.5" customHeight="1" s="6">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2682,7 +2712,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
+    <row r="10" ht="13.5" customHeight="1" s="6">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2709,7 +2739,7 @@
         <v>4.19</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
+    <row r="11" ht="13.5" customHeight="1" s="6">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -2736,13 +2766,13 @@
         <v>8.390000000000001</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15" customHeight="1" s="6">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="8" t="n">
         <v>44503.48433738426</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -2763,13 +2793,13 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15" customHeight="1" s="6">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="8" t="n">
         <v>44503.48806614583</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
@@ -2790,13 +2820,13 @@
         <v>2.26</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15" customHeight="1" s="6">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2021-11-23</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="8" t="n">
         <v>44523.46870836805</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -2817,13 +2847,13 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15" customHeight="1" s="6">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2021-12-23</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="8" t="n">
         <v>44553.80900871528</v>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -2846,8 +2876,8 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -2859,11 +2889,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2911,7 +2941,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
+    <row r="2" ht="13.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2938,7 +2968,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
+    <row r="3" ht="13.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -2965,7 +2995,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
+    <row r="4" ht="13.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2021-10-19</t>
@@ -3073,7 +3103,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
+    <row r="8" ht="13.5" customHeight="1" s="6">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -3100,7 +3130,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
+    <row r="9" ht="13.5" customHeight="1" s="6">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -3127,7 +3157,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
+    <row r="10" ht="13.5" customHeight="1" s="6">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -3154,7 +3184,7 @@
         <v>4.19</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
+    <row r="11" ht="13.5" customHeight="1" s="6">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-10-20</t>
@@ -3183,7 +3213,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -2045,34 +2045,58 @@
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1" s="6">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>2022-09-02</t>
         </is>
       </c>
       <c r="B58" s="9" t="n">
-        <v>44806.69965473429</v>
-      </c>
-      <c r="C58" t="inlineStr">
+        <v>44806.6996547338</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>s166</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>51</v>
-      </c>
-      <c r="E58" t="n">
-        <v>51</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="D58" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F58" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="5" t="n">
         <v>1.07</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" s="6">
-      <c r="B59" s="8" t="n"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n">
+        <v>44810.9392168561</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>cert89</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>51</v>
+      </c>
+      <c r="E59" t="n">
+        <v>51</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
     <row r="1048560" ht="12.75" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -88,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -117,6 +118,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2072,29 +2074,29 @@
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" s="6">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
       <c r="B59" s="9" t="n">
-        <v>44810.9392168561</v>
-      </c>
-      <c r="C59" t="inlineStr">
+        <v>44810.93921685185</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>cert89</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>51</v>
-      </c>
-      <c r="E59" t="n">
-        <v>51</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="D59" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F59" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="5" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2466,7 +2468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -2896,6 +2898,60 @@
       </c>
       <c r="G15" s="5" t="n">
         <v>5.75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44812.4908575463</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>cert166</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44812.5083360391</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>certi166</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -480,13 +479,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2098,6 +2097,114 @@
       </c>
       <c r="G59" s="5" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>44819.62238364583</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>certiecs166</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>44820.64392523148</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>fstc167</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>44823.60025365741</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>scndcerti167</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>44824.38537011574</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>finalcerti167</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -2137,7 +2244,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2468,13 +2575,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2928,30 +3035,57 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
       <c r="B17" s="10" t="n">
-        <v>44812.5083360391</v>
-      </c>
-      <c r="C17" t="inlineStr">
+        <v>44812.50833604167</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>certi166</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>51</v>
-      </c>
-      <c r="E17" t="n">
-        <v>51</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="D17" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44818.98614082176</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>certhftx166</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +3107,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -479,13 +480,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.171875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2205,6 +2206,168 @@
       </c>
       <c r="G63" s="5" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>44830.69566335648</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>ecscceerrtt167</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>44844.5497424537</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>scndcyclecert168</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>44845.43720333333</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>certfnlrun168</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>44867.70049144676</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>certscnd169</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>44868.43876445602</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>certi169</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>44893.50110714943</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>170certfiix</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>51</v>
+      </c>
+      <c r="E69" t="n">
+        <v>51</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -2244,7 +2407,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -2575,13 +2738,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -3086,6 +3249,195 @@
       </c>
       <c r="G18" s="5" t="n">
         <v>0.99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44824.88356408565</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>livecerti167</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44845.53904313657</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>cerbeta168</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44845.86447399305</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>livecert168</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44851.80744054398</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>certhfx168</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44860.80387358796</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>certthhtfx168</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44868.54374612268</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>certbeta169</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44868.85126355324</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>certlive169</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3459,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -2344,30 +2344,219 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B69" s="10" t="n">
-        <v>44893.50110714943</v>
-      </c>
-      <c r="C69" t="inlineStr">
+        <v>44893.50110715278</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>170certfiix</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>51</v>
-      </c>
-      <c r="E69" t="n">
-        <v>51</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="D69" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="n">
+        <v>44894.41249597222</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>170certr</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="n">
+        <v>44914.50157918981</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>171certfnl</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>44914.50671601852</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>cert171</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="n">
+        <v>44939.43298471065</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>certf172htx</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="n">
+        <v>44945.77208820602</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>certic172scn</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="n">
+        <v>44946.42534372685</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>cert172final</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="n">
+        <v>44946.50584851852</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>cer172erte</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -2738,7 +2927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -3438,6 +3627,141 @@
       </c>
       <c r="G25" s="5" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44894.53139605324</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>170betacert</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44894.9054646875</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>170livecert</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44939.83879495371</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>cert172htfx</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44946.59282818287</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>cert172beta</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44946.91007806508</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>certi172live</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>51</v>
+      </c>
+      <c r="E30" t="n">
+        <v>51</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -2557,6 +2557,60 @@
       </c>
       <c r="G76" s="5" t="n">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>44974.45457027778</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>cert173fstccycle</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>44977.42712659722</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>173certificateflow</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -2927,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -3738,30 +3792,84 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>44946.91007806508</v>
-      </c>
-      <c r="C30" t="inlineStr">
+        <v>44946.91007806713</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>certi172live</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>51</v>
-      </c>
-      <c r="E30" t="n">
-        <v>51</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="D30" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44977.61182196759</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>173certflow</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44977.82281973412</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>173livecert</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>51</v>
+      </c>
+      <c r="E32" t="n">
+        <v>51</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -2611,6 +2611,168 @@
       </c>
       <c r="G78" s="5" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="n">
+        <v>44994.56250695602</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>cert174fstcycle</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="n">
+        <v>44998.44736513889</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>174certiflow</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="n">
+        <v>45015.70042503472</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>175sccert</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="n">
+        <v>45016.50412170139</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>175fnlcert</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>45022.63169266203</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>176newcert</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>45023.66425609971</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>176fstcert</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>51</v>
+      </c>
+      <c r="E84" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -2981,7 +3143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -3846,30 +4008,192 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B32" s="10" t="n">
-        <v>44977.82281973412</v>
-      </c>
-      <c r="C32" t="inlineStr">
+        <v>44977.8228197338</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>173livecert</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>51</v>
-      </c>
-      <c r="E32" t="n">
-        <v>51</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="D32" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44992.75082172453</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>173htfmarch</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44998.55603206019</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>174betacert</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44998.85610415509</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>174livecerrt</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45016.56446957176</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>175btcert</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45016.8297484375</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>175certdev</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45016.84193472222</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>175rrcer</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -2749,30 +2749,57 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="5" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
       <c r="B84" s="10" t="n">
-        <v>45023.66425609971</v>
-      </c>
-      <c r="C84" t="inlineStr">
+        <v>45023.66425609954</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
         <is>
           <t>176fstcert</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>51</v>
-      </c>
-      <c r="E84" t="n">
-        <v>50</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="D84" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84" s="5" t="n">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="n">
+        <v>45034.51442388602</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>176certrail</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>50</v>
+      </c>
+      <c r="E85" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -2776,30 +2776,84 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B85" s="10" t="n">
-        <v>45034.51442388602</v>
-      </c>
-      <c r="C85" t="inlineStr">
+        <v>45034.51442388889</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
         <is>
           <t>176certrail</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>50</v>
-      </c>
-      <c r="E85" t="n">
-        <v>50</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="D85" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="n">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>45035.68223667824</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>176scncertt</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="n">
+        <v>45036.39812848379</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>176fnlcerti</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -3170,7 +3224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -4221,6 +4275,114 @@
       </c>
       <c r="G38" s="5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45036.50277901621</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>176betacerti</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45043.45641034722</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>176livecert</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45044.56333199074</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>176fstcertificate</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45044.69091581089</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>176fstcertificate</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -2854,6 +2854,276 @@
       </c>
       <c r="G87" s="5" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B88" s="10" t="n">
+        <v>45062.80627037037</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>177fstcerti</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="n">
+        <v>45063.67997162037</v>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>177scncerti</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="n">
+        <v>45064.35839329861</v>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>177fnlcertifi</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="n">
+        <v>45069.63952361111</v>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>177hftxcert</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="n">
+        <v>45070.61773982639</v>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>177dobcert</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B93" s="10" t="n">
+        <v>45071.41241842593</v>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>178day1certi</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B94" s="10" t="n">
+        <v>45072.51868693287</v>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>178daytwocert</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B95" s="10" t="n">
+        <v>45075.44999702546</v>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>178daythreecert</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B96" s="10" t="n">
+        <v>45089.59114877315</v>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>178certdych</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="n">
+        <v>45089.60535264121</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>178certddy</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>50</v>
+      </c>
+      <c r="E97" t="n">
+        <v>50</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -3224,7 +3494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -4359,30 +4629,111 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B42" s="10" t="n">
-        <v>45044.69091581089</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>45044.69091581018</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>176fstcertificate</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>50</v>
-      </c>
-      <c r="E42" t="n">
-        <v>50</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="D42" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
         <v>0.99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45064.52493467592</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>177betacp</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45065.56823155093</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>177livecerti</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45069.93216425926</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>177htfxtestcert</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -3100,30 +3100,57 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B97" s="10" t="n">
-        <v>45089.60535264121</v>
-      </c>
-      <c r="C97" t="inlineStr">
+        <v>45089.60535263889</v>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
         <is>
           <t>178certddy</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>50</v>
-      </c>
-      <c r="E97" t="n">
-        <v>50</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
+      <c r="D97" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5" t="n">
         <v>0.99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="n">
+        <v>45138.41998594908</v>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>180certi</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F98" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -3494,7 +3521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -4734,6 +4761,87 @@
       </c>
       <c r="G45" s="5" t="n">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45125.76269545139</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>179hftfccet</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45139.53817620371</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>180certif</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45139.86272778652</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>180livecerti</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -3151,6 +3151,492 @@
       </c>
       <c r="G98" s="5" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B99" s="10" t="n">
+        <v>45202.50593893519</v>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>183scndcer</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F99" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B100" s="10" t="n">
+        <v>45203.49650569444</v>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>183fnlcerti</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B101" s="10" t="n">
+        <v>45226.66832849537</v>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>184fstcert</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F101" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B102" s="10" t="n">
+        <v>45229.37964140046</v>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>184fnlcerti</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E102" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B103" s="10" t="n">
+        <v>45258.42145873843</v>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>cert18</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F103" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B104" s="10" t="n">
+        <v>45259.36430049768</v>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>185certlst</t>
+        </is>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B105" s="10" t="n">
+        <v>45275.72814278935</v>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>186certi</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E105" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B106" s="10" t="n">
+        <v>45278.46857796297</v>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>186certfnl</t>
+        </is>
+      </c>
+      <c r="D106" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E106" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F106" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B107" s="10" t="n">
+        <v>45299.69974587963</v>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>187fstcert</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F107" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B108" s="10" t="n">
+        <v>45301.34054168982</v>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>187certlst</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F108" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B109" s="10" t="n">
+        <v>45323.64852230324</v>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>188certifstcyc</t>
+        </is>
+      </c>
+      <c r="D109" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E109" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F109" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B110" s="10" t="n">
+        <v>45324.83329908565</v>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>188certscndcycl</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E110" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F110" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B111" s="10" t="n">
+        <v>45327.38926384259</v>
+      </c>
+      <c r="C111" s="5" t="inlineStr">
+        <is>
+          <t>188lstcerti</t>
+        </is>
+      </c>
+      <c r="D111" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E111" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F111" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B112" s="10" t="n">
+        <v>45341.44964488426</v>
+      </c>
+      <c r="C112" s="5" t="inlineStr">
+        <is>
+          <t>188certhfx</t>
+        </is>
+      </c>
+      <c r="D112" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E112" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F112" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B113" s="10" t="n">
+        <v>45357.6486093287</v>
+      </c>
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>189fstcerti</t>
+        </is>
+      </c>
+      <c r="D113" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E113" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F113" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B114" s="10" t="n">
+        <v>45358.53421383102</v>
+      </c>
+      <c r="C114" s="5" t="inlineStr">
+        <is>
+          <t>189scndcerti</t>
+        </is>
+      </c>
+      <c r="D114" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E114" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F114" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B115" s="10" t="n">
+        <v>45359.33691563657</v>
+      </c>
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>189fnlcertic</t>
+        </is>
+      </c>
+      <c r="D115" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E115" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F115" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B116" s="10" t="n">
+        <v>45359.43448622686</v>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>189betacerti</t>
+        </is>
+      </c>
+      <c r="D116" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E116" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F116" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -3521,7 +4007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -4818,30 +5304,489 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B48" s="10" t="n">
-        <v>45139.86272778652</v>
-      </c>
-      <c r="C48" t="inlineStr">
+        <v>45139.86272778935</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>180livecerti</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>50</v>
-      </c>
-      <c r="E48" t="n">
-        <v>50</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="D48" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45203.51622737268</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>183betacert</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45203.92268850694</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>183livercert</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45218.99330869213</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>183certlb</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45219.01737456019</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>183certllb</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45229.6317946412</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>184betacert</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45229.80591085648</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>184livecert</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45259.57925738426</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>185betacert</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45259.89452915509</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>185certlive</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45278.56047409722</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>186betacerti</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45278.81774439815</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>186livecerti</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45279.49002637732</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>186licerti</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45301.55194828704</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>187betacert</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45301.87011497685</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>187livecerti</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>45327.57478407407</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>188betacerti</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45327.869204375</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>188livecerti</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45344.76534576389</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>188dubbceert</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45359.72442125899</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>189livecertif</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>50</v>
+      </c>
+      <c r="E65" t="n">
+        <v>50</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -3637,6 +3637,141 @@
       </c>
       <c r="G116" s="5" t="n">
         <v>1.04</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B117" s="10" t="n">
+        <v>45379.52431648148</v>
+      </c>
+      <c r="C117" s="5" t="inlineStr">
+        <is>
+          <t>190fstcertif</t>
+        </is>
+      </c>
+      <c r="D117" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E117" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F117" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B118" s="10" t="n">
+        <v>45380.47267983796</v>
+      </c>
+      <c r="C118" s="5" t="inlineStr">
+        <is>
+          <t>190scndcertif</t>
+        </is>
+      </c>
+      <c r="D118" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E118" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F118" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B119" s="10" t="n">
+        <v>45383.37094849537</v>
+      </c>
+      <c r="C119" s="5" t="inlineStr">
+        <is>
+          <t>190fnlcert</t>
+        </is>
+      </c>
+      <c r="D119" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E119" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F119" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B120" s="10" t="n">
+        <v>45414.4673072338</v>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
+        <is>
+          <t>191fstcerti</t>
+        </is>
+      </c>
+      <c r="D120" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E120" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F120" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B121" s="10" t="n">
+        <v>45415.34058586806</v>
+      </c>
+      <c r="C121" s="5" t="inlineStr">
+        <is>
+          <t>191lstcerti</t>
+        </is>
+      </c>
+      <c r="D121" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E121" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F121" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -4007,7 +4142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -5763,29 +5898,110 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B65" s="10" t="n">
-        <v>45359.72442125899</v>
-      </c>
-      <c r="C65" t="inlineStr">
+        <v>45359.72442126158</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>189livecertif</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>50</v>
-      </c>
-      <c r="E65" t="n">
-        <v>50</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="D65" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45383.5238327662</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>190betacertic</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45383.84588971065</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>190livecertif</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45415.59089992942</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>191betaccer</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>50</v>
+      </c>
+      <c r="E68" t="n">
+        <v>50</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -4142,7 +4142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -5979,30 +5979,57 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B68" s="10" t="n">
-        <v>45415.59089992942</v>
-      </c>
-      <c r="C68" t="inlineStr">
+        <v>45415.59089993055</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>191betaccer</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>50</v>
-      </c>
-      <c r="E68" t="n">
-        <v>50</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="D68" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="n">
         <v>1.01</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45418.55534297517</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>191livecert</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>50</v>
+      </c>
+      <c r="E69" t="n">
+        <v>50</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -3772,6 +3772,33 @@
       </c>
       <c r="G121" s="5" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B122" s="10" t="n">
+        <v>45467.40972841897</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>193fixescert</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>50</v>
+      </c>
+      <c r="E122" t="n">
+        <v>50</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -6006,29 +6033,29 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B69" s="10" t="n">
-        <v>45418.55534297517</v>
-      </c>
-      <c r="C69" t="inlineStr">
+        <v>45418.55534297453</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>191livecert</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>50</v>
-      </c>
-      <c r="E69" t="n">
-        <v>50</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="D69" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
         <v>1.63</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CERTIFICATE_REGISTRATION_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
@@ -3775,30 +3775,111 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="5" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B122" s="10" t="n">
-        <v>45467.40972841897</v>
-      </c>
-      <c r="C122" t="inlineStr">
+        <v>45467.40972841435</v>
+      </c>
+      <c r="C122" s="5" t="inlineStr">
         <is>
           <t>193fixescert</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>50</v>
-      </c>
-      <c r="E122" t="n">
-        <v>50</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="n">
+      <c r="D122" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E122" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F122" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="5" t="n">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B123" s="10" t="n">
+        <v>45489.62850387731</v>
+      </c>
+      <c r="C123" s="5" t="inlineStr">
+        <is>
+          <t>194fstcert</t>
+        </is>
+      </c>
+      <c r="D123" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E123" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F123" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B124" s="10" t="n">
+        <v>45490.7458657176</v>
+      </c>
+      <c r="C124" s="5" t="inlineStr">
+        <is>
+          <t>194scndcert</t>
+        </is>
+      </c>
+      <c r="D124" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E124" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F124" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B125" s="10" t="n">
+        <v>45491.35158931713</v>
+      </c>
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>194fnlcert</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E125" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F125" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="5" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="6"/>
@@ -3832,7 +3913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4154,6 +4235,33 @@
       </c>
       <c r="G11" s="5" t="n">
         <v>8.390000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>45491.6296841991</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>194betacerti</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
